--- a/data/Linux/linux-4.9/scripts_func.xlsx
+++ b/data/Linux/linux-4.9/scripts_func.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>func_list</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>abstract_list</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>desciption_list</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>parameter_list</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>context_list</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>return_list</t>
         </is>
